--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-TR Carrier_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-TR Carrier_Board_BOM_V1.00_01-10-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\T41\V012 Files\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2EF55760-843A-4F76-8519-590BC2CA7FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439E6B08-70EF-4023-AA86-1166C0AD4B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-10-band-LPF-TR-carrier" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>708-RMCA1206FT50R0UP</t>
-  </si>
-  <si>
     <t>6.8k Ohm SMD 1206  Resistor</t>
   </si>
   <si>
@@ -104,12 +101,15 @@
   </si>
   <si>
     <t>652-CR1206FX-6801ELF</t>
+  </si>
+  <si>
+    <t>71-RCP1206W50R0GEB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -949,11 +949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1071,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1079,13 +1079,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
